--- a/Data/MyBooks.xlsx
+++ b/Data/MyBooks.xlsx
@@ -1,136 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9065262bd519d5/Documents/Drop_in_this_folder/Find-Free-Book/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_9A96E0E992897166ECABF05D5180CC74757CF819" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D61BD886-FA28-4971-8C7A-F0300EF7C921}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <x:si>
-    <x:t>Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shanghai Splendor: A Cultural History, 1843-1949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Could not find this book</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shanghai: China's Gateway to Modernity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://search.lib.virginia.edu/catalog?isbn=9780804749053&amp;search_field=advanced&amp;sort_key=relevancy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>All About Shanghai And Environ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shanghai's Dancing World: Cabaret Culture and Urban Politics, 1919-1954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://search.lib.virginia.edu/catalog?isbn=9789629964481&amp;search_field=advanced&amp;sort_key=relevancy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the Altar of Freedom: A Black Soldier's Civil War Letters From the Front</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://search.lib.virginia.edu/catalog?author=James+Henry+Gooding&amp;search_field=advanced&amp;sort_key=relevancy&amp;title=On+the+Altar+of+Freedom%3A++A+Black+Soldier%E2%80%99s+Civil+War+Letters+from+the+Front</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Dust Rose Like Smoke: The Subjugation of the Zulu and the Sioux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://search.lib.virginia.edu/catalog/u2276991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>For the Common Defense [electronic resource]: A Military History of the United States From 1607 to 2012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://search.lib.virginia.edu/catalog?search_field=advanced&amp;sort_key=relevancy&amp;title=For+the+Common+Defense%3A++A+Military+History+of+the+United+States+from+1607+to+2012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mr. Polk's Army: The American Military Experience in the Mexican War</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://search.lib.virginia.edu/catalog/u2708421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A Respectable Army: The Military Origins of the Republic, 1763-1789 (3rd edition)</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -413,102 +362,25 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B10"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>